--- a/PhoenixCI/Excel_Template/30790.xlsx
+++ b/PhoenixCI/Excel_Template/30790.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F2AC367-20BA-4169-9A35-A5768C1E1781}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CB8928C-1719-4C2C-9BFA-1062F2041FAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="日均量" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -688,7 +687,7 @@
     <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="184" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -697,7 +696,7 @@
     <xf numFmtId="20" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -712,19 +711,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">

--- a/PhoenixCI/Excel_Template/30790.xlsx
+++ b/PhoenixCI/Excel_Template/30790.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CB8928C-1719-4C2C-9BFA-1062F2041FAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F2AC367-20BA-4169-9A35-A5768C1E1781}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="日均量" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -687,7 +688,7 @@
     <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="184" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -696,7 +697,7 @@
     <xf numFmtId="20" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -711,19 +712,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">

--- a/PhoenixCI/Excel_Template/30790.xlsx
+++ b/PhoenixCI/Excel_Template/30790.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\需求單\1080930下半年\盤後系統需求_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F2AC367-20BA-4169-9A35-A5768C1E1781}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="日均量" sheetId="1" r:id="rId1"/>
@@ -18,15 +17,7 @@
     <sheet name="比重" sheetId="3" r:id="rId3"/>
     <sheet name="TX振幅" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -506,7 +497,7 @@
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="184" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -579,19 +570,19 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -688,7 +679,7 @@
     <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="184" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -697,7 +688,7 @@
     <xf numFmtId="20" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -712,19 +703,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -748,7 +739,7 @@
     <xf numFmtId="184" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -862,23 +853,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -914,23 +888,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1109,34 +1066,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="4.25" style="1" customWidth="1"/>
     <col min="5" max="11" width="9.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.25" style="19" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.25" style="19" customWidth="1"/>
     <col min="13" max="20" width="9.25" style="1" customWidth="1"/>
     <col min="21" max="24" width="9" style="19"/>
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18" customHeight="1">
+    <row r="1" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="18" customHeight="1">
+    <row r="2" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="16.5">
+    <row r="3" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>9</v>
       </c>
@@ -1154,7 +1111,7 @@
       <c r="G3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="18" t="s">
         <v>43</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -1166,7 +1123,7 @@
       <c r="K3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="26" t="s">
         <v>38</v>
       </c>
       <c r="M3" s="3" t="s">
@@ -1206,7 +1163,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="3"/>
       <c r="C4" s="8"/>
@@ -1232,7 +1189,7 @@
       <c r="W4" s="22"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="3"/>
       <c r="C5" s="8"/>
@@ -1258,7 +1215,7 @@
       <c r="W5" s="22"/>
       <c r="X5" s="22"/>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="3"/>
       <c r="C6" s="8"/>
@@ -1284,7 +1241,7 @@
       <c r="W6" s="22"/>
       <c r="X6" s="22"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="3"/>
       <c r="C7" s="8"/>
@@ -1310,7 +1267,7 @@
       <c r="W7" s="22"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="3"/>
       <c r="C8" s="8"/>
@@ -1336,7 +1293,7 @@
       <c r="W8" s="22"/>
       <c r="X8" s="22"/>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="3"/>
       <c r="C9" s="8"/>
@@ -1362,7 +1319,7 @@
       <c r="W9" s="22"/>
       <c r="X9" s="22"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="3"/>
       <c r="C10" s="8"/>
@@ -1388,7 +1345,7 @@
       <c r="W10" s="22"/>
       <c r="X10" s="22"/>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="3"/>
       <c r="C11" s="8"/>
@@ -1414,7 +1371,7 @@
       <c r="W11" s="22"/>
       <c r="X11" s="22"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="3"/>
       <c r="C12" s="8"/>
@@ -1440,7 +1397,7 @@
       <c r="W12" s="22"/>
       <c r="X12" s="22"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="3"/>
       <c r="C13" s="8"/>
@@ -1466,7 +1423,7 @@
       <c r="W13" s="22"/>
       <c r="X13" s="22"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="3"/>
       <c r="C14" s="8"/>
@@ -1492,7 +1449,7 @@
       <c r="W14" s="22"/>
       <c r="X14" s="22"/>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="3"/>
       <c r="C15" s="8"/>
@@ -1518,7 +1475,7 @@
       <c r="W15" s="22"/>
       <c r="X15" s="22"/>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="3"/>
       <c r="C16" s="8"/>
@@ -1544,7 +1501,7 @@
       <c r="W16" s="22"/>
       <c r="X16" s="22"/>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="3"/>
       <c r="C17" s="8"/>
@@ -1570,7 +1527,7 @@
       <c r="W17" s="22"/>
       <c r="X17" s="22"/>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="3"/>
       <c r="C18" s="8"/>
@@ -1596,7 +1553,7 @@
       <c r="W18" s="22"/>
       <c r="X18" s="22"/>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="3"/>
       <c r="C19" s="8"/>
@@ -1622,7 +1579,7 @@
       <c r="W19" s="22"/>
       <c r="X19" s="22"/>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="3"/>
       <c r="C20" s="8"/>
@@ -1648,7 +1605,7 @@
       <c r="W20" s="22"/>
       <c r="X20" s="22"/>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="3"/>
       <c r="C21" s="8"/>
@@ -1674,7 +1631,7 @@
       <c r="W21" s="22"/>
       <c r="X21" s="22"/>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="3"/>
       <c r="C22" s="8"/>
@@ -1700,7 +1657,7 @@
       <c r="W22" s="22"/>
       <c r="X22" s="22"/>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="3"/>
       <c r="C23" s="8"/>
@@ -1726,7 +1683,7 @@
       <c r="W23" s="22"/>
       <c r="X23" s="22"/>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="3"/>
       <c r="C24" s="8"/>
@@ -1752,7 +1709,7 @@
       <c r="W24" s="22"/>
       <c r="X24" s="22"/>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="3"/>
       <c r="C25" s="8"/>
@@ -1778,7 +1735,7 @@
       <c r="W25" s="22"/>
       <c r="X25" s="22"/>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="3"/>
       <c r="C26" s="8"/>
@@ -1804,7 +1761,7 @@
       <c r="W26" s="22"/>
       <c r="X26" s="22"/>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="3"/>
       <c r="C27" s="8"/>
@@ -1830,7 +1787,7 @@
       <c r="W27" s="22"/>
       <c r="X27" s="22"/>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="3"/>
       <c r="C28" s="8"/>
@@ -1856,7 +1813,7 @@
       <c r="W28" s="22"/>
       <c r="X28" s="22"/>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="3"/>
       <c r="C29" s="8"/>
@@ -1882,7 +1839,7 @@
       <c r="W29" s="22"/>
       <c r="X29" s="22"/>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="3"/>
       <c r="C30" s="8"/>
@@ -1908,7 +1865,7 @@
       <c r="W30" s="22"/>
       <c r="X30" s="22"/>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="3"/>
       <c r="C31" s="8"/>
@@ -1934,7 +1891,7 @@
       <c r="W31" s="22"/>
       <c r="X31" s="22"/>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="3"/>
       <c r="C32" s="8"/>
@@ -1960,7 +1917,7 @@
       <c r="W32" s="22"/>
       <c r="X32" s="22"/>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="3"/>
       <c r="C33" s="8"/>
@@ -1986,7 +1943,7 @@
       <c r="W33" s="22"/>
       <c r="X33" s="22"/>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="3"/>
       <c r="C34" s="8"/>
@@ -2012,7 +1969,7 @@
       <c r="W34" s="22"/>
       <c r="X34" s="22"/>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="3"/>
       <c r="C35" s="8"/>
@@ -2038,7 +1995,7 @@
       <c r="W35" s="22"/>
       <c r="X35" s="22"/>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="3"/>
       <c r="C36" s="8"/>
@@ -2064,7 +2021,7 @@
       <c r="W36" s="22"/>
       <c r="X36" s="22"/>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="3"/>
       <c r="C37" s="8"/>
@@ -2090,7 +2047,7 @@
       <c r="W37" s="22"/>
       <c r="X37" s="22"/>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="3"/>
       <c r="C38" s="8"/>
@@ -2116,7 +2073,7 @@
       <c r="W38" s="22"/>
       <c r="X38" s="22"/>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="3"/>
       <c r="C39" s="8"/>
@@ -2142,7 +2099,7 @@
       <c r="W39" s="22"/>
       <c r="X39" s="22"/>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="3"/>
       <c r="C40" s="8"/>
@@ -2168,7 +2125,7 @@
       <c r="W40" s="22"/>
       <c r="X40" s="22"/>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="3"/>
       <c r="C41" s="8"/>
@@ -2194,7 +2151,7 @@
       <c r="W41" s="22"/>
       <c r="X41" s="22"/>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="3"/>
       <c r="C42" s="8"/>
@@ -2220,7 +2177,7 @@
       <c r="W42" s="22"/>
       <c r="X42" s="22"/>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="3"/>
       <c r="C43" s="8"/>
@@ -2246,7 +2203,7 @@
       <c r="W43" s="22"/>
       <c r="X43" s="22"/>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="3"/>
       <c r="C44" s="8"/>
@@ -2272,7 +2229,7 @@
       <c r="W44" s="22"/>
       <c r="X44" s="22"/>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="3"/>
       <c r="C45" s="8"/>
@@ -2298,7 +2255,7 @@
       <c r="W45" s="22"/>
       <c r="X45" s="22"/>
     </row>
-    <row r="46" spans="1:24">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="3"/>
       <c r="C46" s="8"/>
@@ -2324,7 +2281,7 @@
       <c r="W46" s="22"/>
       <c r="X46" s="22"/>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="3"/>
       <c r="C47" s="8"/>
@@ -2350,7 +2307,7 @@
       <c r="W47" s="22"/>
       <c r="X47" s="22"/>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="3"/>
       <c r="C48" s="8"/>
@@ -2376,7 +2333,7 @@
       <c r="W48" s="22"/>
       <c r="X48" s="22"/>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="3"/>
       <c r="C49" s="8"/>
@@ -2402,7 +2359,7 @@
       <c r="W49" s="22"/>
       <c r="X49" s="22"/>
     </row>
-    <row r="50" spans="1:24">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="3"/>
       <c r="C50" s="8"/>
@@ -2428,7 +2385,7 @@
       <c r="W50" s="22"/>
       <c r="X50" s="22"/>
     </row>
-    <row r="51" spans="1:24">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="3"/>
       <c r="C51" s="8"/>
@@ -2454,7 +2411,7 @@
       <c r="W51" s="22"/>
       <c r="X51" s="22"/>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="3"/>
       <c r="C52" s="8"/>
@@ -2480,7 +2437,7 @@
       <c r="W52" s="22"/>
       <c r="X52" s="22"/>
     </row>
-    <row r="53" spans="1:24">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="3"/>
       <c r="C53" s="8"/>
@@ -2506,7 +2463,7 @@
       <c r="W53" s="22"/>
       <c r="X53" s="22"/>
     </row>
-    <row r="54" spans="1:24">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="3"/>
       <c r="C54" s="8"/>
@@ -2532,7 +2489,7 @@
       <c r="W54" s="22"/>
       <c r="X54" s="22"/>
     </row>
-    <row r="55" spans="1:24">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="3"/>
       <c r="C55" s="8"/>
@@ -2558,7 +2515,7 @@
       <c r="W55" s="22"/>
       <c r="X55" s="22"/>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="3"/>
       <c r="C56" s="8"/>
@@ -2584,7 +2541,7 @@
       <c r="W56" s="22"/>
       <c r="X56" s="22"/>
     </row>
-    <row r="57" spans="1:24">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="3"/>
       <c r="C57" s="8"/>
@@ -2610,7 +2567,7 @@
       <c r="W57" s="22"/>
       <c r="X57" s="22"/>
     </row>
-    <row r="58" spans="1:24">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="3"/>
       <c r="C58" s="8"/>
@@ -2636,7 +2593,7 @@
       <c r="W58" s="22"/>
       <c r="X58" s="22"/>
     </row>
-    <row r="59" spans="1:24">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="3"/>
       <c r="C59" s="8"/>
@@ -2662,7 +2619,7 @@
       <c r="W59" s="22"/>
       <c r="X59" s="22"/>
     </row>
-    <row r="60" spans="1:24" ht="16.5">
+    <row r="60" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
         <v>13</v>
       </c>
@@ -2747,7 +2704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="16.5">
+    <row r="61" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A61" s="29" t="s">
         <v>17</v>
       </c>
@@ -2775,7 +2732,7 @@
       <c r="W61" s="22"/>
       <c r="X61" s="22"/>
     </row>
-    <row r="62" spans="1:24" ht="16.5">
+    <row r="62" spans="1:24" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="29" t="s">
         <v>15</v>
       </c>
@@ -2879,10 +2836,10 @@
   <dimension ref="A1:X62"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" customWidth="1"/>
@@ -2890,12 +2847,12 @@
     <col min="4" max="4" width="4.375" customWidth="1"/>
     <col min="5" max="5" width="4.375" hidden="1" customWidth="1"/>
     <col min="6" max="11" width="9.25" customWidth="1"/>
-    <col min="12" max="12" width="9.25" style="23" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.25" style="23" customWidth="1"/>
     <col min="13" max="20" width="9.25" customWidth="1"/>
     <col min="21" max="24" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18" customHeight="1">
+    <row r="1" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -2919,7 +2876,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:24" ht="18" customHeight="1">
+    <row r="2" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2946,7 +2903,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>9</v>
       </c>
@@ -2962,7 +2919,7 @@
       <c r="G3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="18" t="s">
         <v>44</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -2974,7 +2931,7 @@
       <c r="K3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="26" t="s">
         <v>38</v>
       </c>
       <c r="M3" s="3" t="s">
@@ -3014,7 +2971,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>日均量!A4</f>
         <v>0</v>
@@ -3052,7 +3009,7 @@
       <c r="W4" s="24"/>
       <c r="X4" s="24"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>日均量!A5</f>
         <v>0</v>
@@ -3090,7 +3047,7 @@
       <c r="W5" s="24"/>
       <c r="X5" s="24"/>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>日均量!A6</f>
         <v>0</v>
@@ -3128,7 +3085,7 @@
       <c r="W6" s="24"/>
       <c r="X6" s="24"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>日均量!A7</f>
         <v>0</v>
@@ -3166,7 +3123,7 @@
       <c r="W7" s="24"/>
       <c r="X7" s="24"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>日均量!A8</f>
         <v>0</v>
@@ -3204,7 +3161,7 @@
       <c r="W8" s="24"/>
       <c r="X8" s="24"/>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>日均量!A9</f>
         <v>0</v>
@@ -3242,7 +3199,7 @@
       <c r="W9" s="24"/>
       <c r="X9" s="24"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>日均量!A10</f>
         <v>0</v>
@@ -3280,7 +3237,7 @@
       <c r="W10" s="24"/>
       <c r="X10" s="24"/>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>日均量!A11</f>
         <v>0</v>
@@ -3318,7 +3275,7 @@
       <c r="W11" s="24"/>
       <c r="X11" s="24"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>日均量!A12</f>
         <v>0</v>
@@ -3356,7 +3313,7 @@
       <c r="W12" s="24"/>
       <c r="X12" s="24"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>日均量!A13</f>
         <v>0</v>
@@ -3394,7 +3351,7 @@
       <c r="W13" s="24"/>
       <c r="X13" s="24"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>日均量!A14</f>
         <v>0</v>
@@ -3432,7 +3389,7 @@
       <c r="W14" s="24"/>
       <c r="X14" s="24"/>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>日均量!A15</f>
         <v>0</v>
@@ -3470,7 +3427,7 @@
       <c r="W15" s="24"/>
       <c r="X15" s="24"/>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>日均量!A16</f>
         <v>0</v>
@@ -3508,7 +3465,7 @@
       <c r="W16" s="24"/>
       <c r="X16" s="24"/>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>日均量!A17</f>
         <v>0</v>
@@ -3546,7 +3503,7 @@
       <c r="W17" s="24"/>
       <c r="X17" s="24"/>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>日均量!A18</f>
         <v>0</v>
@@ -3584,7 +3541,7 @@
       <c r="W18" s="24"/>
       <c r="X18" s="24"/>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>日均量!A19</f>
         <v>0</v>
@@ -3622,7 +3579,7 @@
       <c r="W19" s="24"/>
       <c r="X19" s="24"/>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>日均量!A20</f>
         <v>0</v>
@@ -3660,7 +3617,7 @@
       <c r="W20" s="24"/>
       <c r="X20" s="24"/>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>日均量!A21</f>
         <v>0</v>
@@ -3698,7 +3655,7 @@
       <c r="W21" s="24"/>
       <c r="X21" s="24"/>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>日均量!A22</f>
         <v>0</v>
@@ -3736,7 +3693,7 @@
       <c r="W22" s="24"/>
       <c r="X22" s="24"/>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>日均量!A23</f>
         <v>0</v>
@@ -3774,7 +3731,7 @@
       <c r="W23" s="24"/>
       <c r="X23" s="24"/>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>日均量!A24</f>
         <v>0</v>
@@ -3812,7 +3769,7 @@
       <c r="W24" s="24"/>
       <c r="X24" s="24"/>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>日均量!A25</f>
         <v>0</v>
@@ -3850,7 +3807,7 @@
       <c r="W25" s="24"/>
       <c r="X25" s="24"/>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <f>日均量!A26</f>
         <v>0</v>
@@ -3888,7 +3845,7 @@
       <c r="W26" s="24"/>
       <c r="X26" s="24"/>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <f>日均量!A27</f>
         <v>0</v>
@@ -3926,7 +3883,7 @@
       <c r="W27" s="24"/>
       <c r="X27" s="24"/>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <f>日均量!A28</f>
         <v>0</v>
@@ -3964,7 +3921,7 @@
       <c r="W28" s="24"/>
       <c r="X28" s="24"/>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <f>日均量!A29</f>
         <v>0</v>
@@ -4002,7 +3959,7 @@
       <c r="W29" s="24"/>
       <c r="X29" s="24"/>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <f>日均量!A30</f>
         <v>0</v>
@@ -4040,7 +3997,7 @@
       <c r="W30" s="24"/>
       <c r="X30" s="24"/>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <f>日均量!A31</f>
         <v>0</v>
@@ -4078,7 +4035,7 @@
       <c r="W31" s="24"/>
       <c r="X31" s="24"/>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <f>日均量!A32</f>
         <v>0</v>
@@ -4116,7 +4073,7 @@
       <c r="W32" s="24"/>
       <c r="X32" s="24"/>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <f>日均量!A33</f>
         <v>0</v>
@@ -4154,7 +4111,7 @@
       <c r="W33" s="24"/>
       <c r="X33" s="24"/>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <f>日均量!A34</f>
         <v>0</v>
@@ -4192,7 +4149,7 @@
       <c r="W34" s="24"/>
       <c r="X34" s="24"/>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <f>日均量!A35</f>
         <v>0</v>
@@ -4230,7 +4187,7 @@
       <c r="W35" s="24"/>
       <c r="X35" s="24"/>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <f>日均量!A36</f>
         <v>0</v>
@@ -4268,7 +4225,7 @@
       <c r="W36" s="24"/>
       <c r="X36" s="24"/>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <f>日均量!A37</f>
         <v>0</v>
@@ -4306,7 +4263,7 @@
       <c r="W37" s="24"/>
       <c r="X37" s="24"/>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <f>日均量!A38</f>
         <v>0</v>
@@ -4344,7 +4301,7 @@
       <c r="W38" s="24"/>
       <c r="X38" s="24"/>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <f>日均量!A39</f>
         <v>0</v>
@@ -4382,7 +4339,7 @@
       <c r="W39" s="24"/>
       <c r="X39" s="24"/>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <f>日均量!A40</f>
         <v>0</v>
@@ -4420,7 +4377,7 @@
       <c r="W40" s="24"/>
       <c r="X40" s="24"/>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <f>日均量!A41</f>
         <v>0</v>
@@ -4458,7 +4415,7 @@
       <c r="W41" s="24"/>
       <c r="X41" s="24"/>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <f>日均量!A42</f>
         <v>0</v>
@@ -4496,7 +4453,7 @@
       <c r="W42" s="24"/>
       <c r="X42" s="24"/>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <f>日均量!A43</f>
         <v>0</v>
@@ -4534,7 +4491,7 @@
       <c r="W43" s="24"/>
       <c r="X43" s="24"/>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <f>日均量!A44</f>
         <v>0</v>
@@ -4572,7 +4529,7 @@
       <c r="W44" s="24"/>
       <c r="X44" s="24"/>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <f>日均量!A45</f>
         <v>0</v>
@@ -4610,7 +4567,7 @@
       <c r="W45" s="24"/>
       <c r="X45" s="24"/>
     </row>
-    <row r="46" spans="1:24">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <f>日均量!A46</f>
         <v>0</v>
@@ -4648,7 +4605,7 @@
       <c r="W46" s="24"/>
       <c r="X46" s="24"/>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <f>日均量!A47</f>
         <v>0</v>
@@ -4686,7 +4643,7 @@
       <c r="W47" s="24"/>
       <c r="X47" s="24"/>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <f>日均量!A48</f>
         <v>0</v>
@@ -4724,7 +4681,7 @@
       <c r="W48" s="24"/>
       <c r="X48" s="24"/>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <f>日均量!A49</f>
         <v>0</v>
@@ -4762,7 +4719,7 @@
       <c r="W49" s="24"/>
       <c r="X49" s="24"/>
     </row>
-    <row r="50" spans="1:24">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <f>日均量!A50</f>
         <v>0</v>
@@ -4800,7 +4757,7 @@
       <c r="W50" s="24"/>
       <c r="X50" s="24"/>
     </row>
-    <row r="51" spans="1:24">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <f>日均量!A51</f>
         <v>0</v>
@@ -4838,7 +4795,7 @@
       <c r="W51" s="24"/>
       <c r="X51" s="24"/>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <f>日均量!A52</f>
         <v>0</v>
@@ -4876,7 +4833,7 @@
       <c r="W52" s="24"/>
       <c r="X52" s="24"/>
     </row>
-    <row r="53" spans="1:24">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <f>日均量!A53</f>
         <v>0</v>
@@ -4914,7 +4871,7 @@
       <c r="W53" s="24"/>
       <c r="X53" s="24"/>
     </row>
-    <row r="54" spans="1:24">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <f>日均量!A54</f>
         <v>0</v>
@@ -4952,7 +4909,7 @@
       <c r="W54" s="24"/>
       <c r="X54" s="24"/>
     </row>
-    <row r="55" spans="1:24">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <f>日均量!A55</f>
         <v>0</v>
@@ -4990,7 +4947,7 @@
       <c r="W55" s="24"/>
       <c r="X55" s="24"/>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <f>日均量!A56</f>
         <v>0</v>
@@ -5028,7 +4985,7 @@
       <c r="W56" s="24"/>
       <c r="X56" s="24"/>
     </row>
-    <row r="57" spans="1:24">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <f>日均量!A57</f>
         <v>0</v>
@@ -5066,7 +5023,7 @@
       <c r="W57" s="24"/>
       <c r="X57" s="24"/>
     </row>
-    <row r="58" spans="1:24">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <f>日均量!A58</f>
         <v>0</v>
@@ -5104,7 +5061,7 @@
       <c r="W58" s="24"/>
       <c r="X58" s="24"/>
     </row>
-    <row r="59" spans="1:24">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <f>日均量!A59</f>
         <v>0</v>
@@ -5142,7 +5099,7 @@
       <c r="W59" s="24"/>
       <c r="X59" s="24"/>
     </row>
-    <row r="60" spans="1:24">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
         <v>13</v>
       </c>
@@ -5227,7 +5184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:24">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
         <v>14</v>
       </c>
@@ -5255,7 +5212,7 @@
       <c r="W61" s="24"/>
       <c r="X61" s="24"/>
     </row>
-    <row r="62" spans="1:24">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
         <v>15</v>
       </c>
@@ -5358,11 +5315,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.625" customWidth="1"/>
     <col min="2" max="2" width="4.375" customWidth="1"/>
@@ -5370,12 +5327,12 @@
     <col min="4" max="4" width="4.375" customWidth="1"/>
     <col min="5" max="5" width="4.375" hidden="1" customWidth="1"/>
     <col min="6" max="11" width="9.25" customWidth="1"/>
-    <col min="12" max="12" width="9.25" style="23" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.25" style="23" customWidth="1"/>
     <col min="13" max="20" width="9.25" customWidth="1"/>
     <col min="21" max="24" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18" customHeight="1">
+    <row r="1" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -5399,7 +5356,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:24" ht="18" customHeight="1">
+    <row r="2" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5426,7 +5383,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>9</v>
       </c>
@@ -5442,7 +5399,7 @@
       <c r="G3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="18" t="s">
         <v>44</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -5454,7 +5411,7 @@
       <c r="K3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="26" t="s">
         <v>38</v>
       </c>
       <c r="M3" s="3" t="s">
@@ -5494,7 +5451,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>日均量!A4</f>
         <v>0</v>
@@ -5532,7 +5489,7 @@
       <c r="W4" s="24"/>
       <c r="X4" s="24"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>日均量!A5</f>
         <v>0</v>
@@ -5570,7 +5527,7 @@
       <c r="W5" s="24"/>
       <c r="X5" s="24"/>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>日均量!A6</f>
         <v>0</v>
@@ -5608,7 +5565,7 @@
       <c r="W6" s="24"/>
       <c r="X6" s="24"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>日均量!A7</f>
         <v>0</v>
@@ -5646,7 +5603,7 @@
       <c r="W7" s="24"/>
       <c r="X7" s="24"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>日均量!A8</f>
         <v>0</v>
@@ -5684,7 +5641,7 @@
       <c r="W8" s="24"/>
       <c r="X8" s="24"/>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>日均量!A9</f>
         <v>0</v>
@@ -5722,7 +5679,7 @@
       <c r="W9" s="24"/>
       <c r="X9" s="24"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>日均量!A10</f>
         <v>0</v>
@@ -5760,7 +5717,7 @@
       <c r="W10" s="24"/>
       <c r="X10" s="24"/>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>日均量!A11</f>
         <v>0</v>
@@ -5798,7 +5755,7 @@
       <c r="W11" s="24"/>
       <c r="X11" s="24"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>日均量!A12</f>
         <v>0</v>
@@ -5836,7 +5793,7 @@
       <c r="W12" s="24"/>
       <c r="X12" s="24"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>日均量!A13</f>
         <v>0</v>
@@ -5874,7 +5831,7 @@
       <c r="W13" s="24"/>
       <c r="X13" s="24"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>日均量!A14</f>
         <v>0</v>
@@ -5912,7 +5869,7 @@
       <c r="W14" s="24"/>
       <c r="X14" s="24"/>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>日均量!A15</f>
         <v>0</v>
@@ -5950,7 +5907,7 @@
       <c r="W15" s="24"/>
       <c r="X15" s="24"/>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>日均量!A16</f>
         <v>0</v>
@@ -5988,7 +5945,7 @@
       <c r="W16" s="24"/>
       <c r="X16" s="24"/>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>日均量!A17</f>
         <v>0</v>
@@ -6026,7 +5983,7 @@
       <c r="W17" s="24"/>
       <c r="X17" s="24"/>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>日均量!A18</f>
         <v>0</v>
@@ -6064,7 +6021,7 @@
       <c r="W18" s="24"/>
       <c r="X18" s="24"/>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>日均量!A19</f>
         <v>0</v>
@@ -6102,7 +6059,7 @@
       <c r="W19" s="24"/>
       <c r="X19" s="24"/>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>日均量!A20</f>
         <v>0</v>
@@ -6140,7 +6097,7 @@
       <c r="W20" s="24"/>
       <c r="X20" s="24"/>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>日均量!A21</f>
         <v>0</v>
@@ -6178,7 +6135,7 @@
       <c r="W21" s="24"/>
       <c r="X21" s="24"/>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>日均量!A22</f>
         <v>0</v>
@@ -6216,7 +6173,7 @@
       <c r="W22" s="24"/>
       <c r="X22" s="24"/>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>日均量!A23</f>
         <v>0</v>
@@ -6254,7 +6211,7 @@
       <c r="W23" s="24"/>
       <c r="X23" s="24"/>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>日均量!A24</f>
         <v>0</v>
@@ -6292,7 +6249,7 @@
       <c r="W24" s="24"/>
       <c r="X24" s="24"/>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>日均量!A25</f>
         <v>0</v>
@@ -6330,7 +6287,7 @@
       <c r="W25" s="24"/>
       <c r="X25" s="24"/>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <f>日均量!A26</f>
         <v>0</v>
@@ -6368,7 +6325,7 @@
       <c r="W26" s="24"/>
       <c r="X26" s="24"/>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <f>日均量!A27</f>
         <v>0</v>
@@ -6406,7 +6363,7 @@
       <c r="W27" s="24"/>
       <c r="X27" s="24"/>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <f>日均量!A28</f>
         <v>0</v>
@@ -6444,7 +6401,7 @@
       <c r="W28" s="24"/>
       <c r="X28" s="24"/>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <f>日均量!A29</f>
         <v>0</v>
@@ -6482,7 +6439,7 @@
       <c r="W29" s="24"/>
       <c r="X29" s="24"/>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <f>日均量!A30</f>
         <v>0</v>
@@ -6520,7 +6477,7 @@
       <c r="W30" s="24"/>
       <c r="X30" s="24"/>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <f>日均量!A31</f>
         <v>0</v>
@@ -6558,7 +6515,7 @@
       <c r="W31" s="24"/>
       <c r="X31" s="24"/>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <f>日均量!A32</f>
         <v>0</v>
@@ -6596,7 +6553,7 @@
       <c r="W32" s="24"/>
       <c r="X32" s="24"/>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <f>日均量!A33</f>
         <v>0</v>
@@ -6634,7 +6591,7 @@
       <c r="W33" s="24"/>
       <c r="X33" s="24"/>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <f>日均量!A34</f>
         <v>0</v>
@@ -6672,7 +6629,7 @@
       <c r="W34" s="24"/>
       <c r="X34" s="24"/>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <f>日均量!A35</f>
         <v>0</v>
@@ -6710,7 +6667,7 @@
       <c r="W35" s="24"/>
       <c r="X35" s="24"/>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <f>日均量!A36</f>
         <v>0</v>
@@ -6748,7 +6705,7 @@
       <c r="W36" s="24"/>
       <c r="X36" s="24"/>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <f>日均量!A37</f>
         <v>0</v>
@@ -6786,7 +6743,7 @@
       <c r="W37" s="24"/>
       <c r="X37" s="24"/>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <f>日均量!A38</f>
         <v>0</v>
@@ -6824,7 +6781,7 @@
       <c r="W38" s="24"/>
       <c r="X38" s="24"/>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <f>日均量!A39</f>
         <v>0</v>
@@ -6862,7 +6819,7 @@
       <c r="W39" s="24"/>
       <c r="X39" s="24"/>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <f>日均量!A40</f>
         <v>0</v>
@@ -6900,7 +6857,7 @@
       <c r="W40" s="24"/>
       <c r="X40" s="24"/>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <f>日均量!A41</f>
         <v>0</v>
@@ -6938,7 +6895,7 @@
       <c r="W41" s="24"/>
       <c r="X41" s="24"/>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <f>日均量!A42</f>
         <v>0</v>
@@ -6976,7 +6933,7 @@
       <c r="W42" s="24"/>
       <c r="X42" s="24"/>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <f>日均量!A43</f>
         <v>0</v>
@@ -7014,7 +6971,7 @@
       <c r="W43" s="24"/>
       <c r="X43" s="24"/>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <f>日均量!A44</f>
         <v>0</v>
@@ -7052,7 +7009,7 @@
       <c r="W44" s="24"/>
       <c r="X44" s="24"/>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <f>日均量!A45</f>
         <v>0</v>
@@ -7090,7 +7047,7 @@
       <c r="W45" s="24"/>
       <c r="X45" s="24"/>
     </row>
-    <row r="46" spans="1:24">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <f>日均量!A46</f>
         <v>0</v>
@@ -7128,7 +7085,7 @@
       <c r="W46" s="24"/>
       <c r="X46" s="24"/>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <f>日均量!A47</f>
         <v>0</v>
@@ -7166,7 +7123,7 @@
       <c r="W47" s="24"/>
       <c r="X47" s="24"/>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <f>日均量!A48</f>
         <v>0</v>
@@ -7204,7 +7161,7 @@
       <c r="W48" s="24"/>
       <c r="X48" s="24"/>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <f>日均量!A49</f>
         <v>0</v>
@@ -7242,7 +7199,7 @@
       <c r="W49" s="24"/>
       <c r="X49" s="24"/>
     </row>
-    <row r="50" spans="1:24">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <f>日均量!A50</f>
         <v>0</v>
@@ -7280,7 +7237,7 @@
       <c r="W50" s="24"/>
       <c r="X50" s="24"/>
     </row>
-    <row r="51" spans="1:24">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <f>日均量!A51</f>
         <v>0</v>
@@ -7318,7 +7275,7 @@
       <c r="W51" s="24"/>
       <c r="X51" s="24"/>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <f>日均量!A52</f>
         <v>0</v>
@@ -7356,7 +7313,7 @@
       <c r="W52" s="24"/>
       <c r="X52" s="24"/>
     </row>
-    <row r="53" spans="1:24">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <f>日均量!A53</f>
         <v>0</v>
@@ -7394,7 +7351,7 @@
       <c r="W53" s="24"/>
       <c r="X53" s="24"/>
     </row>
-    <row r="54" spans="1:24">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <f>日均量!A54</f>
         <v>0</v>
@@ -7432,7 +7389,7 @@
       <c r="W54" s="24"/>
       <c r="X54" s="24"/>
     </row>
-    <row r="55" spans="1:24">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <f>日均量!A55</f>
         <v>0</v>
@@ -7470,7 +7427,7 @@
       <c r="W55" s="24"/>
       <c r="X55" s="24"/>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <f>日均量!A56</f>
         <v>0</v>
@@ -7508,7 +7465,7 @@
       <c r="W56" s="24"/>
       <c r="X56" s="24"/>
     </row>
-    <row r="57" spans="1:24">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <f>日均量!A57</f>
         <v>0</v>
@@ -7546,7 +7503,7 @@
       <c r="W57" s="24"/>
       <c r="X57" s="24"/>
     </row>
-    <row r="58" spans="1:24">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <f>日均量!A58</f>
         <v>0</v>
@@ -7584,7 +7541,7 @@
       <c r="W58" s="24"/>
       <c r="X58" s="24"/>
     </row>
-    <row r="59" spans="1:24">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <f>日均量!A59</f>
         <v>0</v>
@@ -7622,7 +7579,7 @@
       <c r="W59" s="24"/>
       <c r="X59" s="24"/>
     </row>
-    <row r="60" spans="1:24">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
         <v>16</v>
       </c>
@@ -7727,7 +7684,7 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.875" style="4" customWidth="1"/>
     <col min="2" max="2" width="13" style="4" customWidth="1"/>
@@ -7735,7 +7692,7 @@
     <col min="7" max="8" width="14.25" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
@@ -7747,7 +7704,7 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="18" customHeight="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>26</v>
       </c>
@@ -7759,7 +7716,7 @@
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
     </row>
-    <row r="3" spans="1:8" s="14" customFormat="1">
+    <row r="3" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>30</v>
       </c>
